--- a/similarities/split_global/harmonic_similarity_timestamps_55.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,427 +484,451 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'E:min']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb:min', 'Eb:7', 'Ab'], ['Ab', 'Eb:7', 'Ab'], ['Eb:7', 'Ab', 'F:min']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:06.640000', '0:00:13.600000'), ('0:01:10.980000', '0:01:20.440000'), ('0:00:07.800000', '0:00:15.860000')]</t>
+          <t>('0:01:38.620000', '0:01:52.500000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:03.650000', '0:00:06.290000'), ('0:00:25.220000', '0:00:27.170000'), ('0:00:45.320000', '0:00:48.590000')]</t>
+          <t>('0:00:42.560000', '0:00:48.720000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=6.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=7.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=3.65', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=45.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=42.56</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:27.660000', '0:01:36.720000')]</t>
+          <t>('0:00:08.080000', '0:00:19.060000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.860000')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:20.801000', '0:00:27.165000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E'], ['D', 'A', 'D', 'A']]</t>
+          <t>['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'E/4'], ['D/5', 'A', 'D', 'A/3']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:27.795000'), ('0:02:06.506000', '0:02:21.245000')]</t>
+          <t>('0:01:04.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:17.913000', '0:00:26.611000'), ('0:00:12.743000', '0:00:17.058000')]</t>
+          <t>('0:01:03.380000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=126.506']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=64.28</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=63.38</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C:7', 'F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+          <t>('0:00:11.510000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:20.200000', '0:00:22.820000')]</t>
+          <t>('0:01:39.460000', '0:01:49.220000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=11.51</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=20.2']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=99.46</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D/3'], ['C:maj', 'D:maj', 'G:maj'], ['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['A', 'D', 'E:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G'], ['F/3', 'G/3', 'C'], ['C/3', 'F', 'C/3']]</t>
+          <t>['G', 'C', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:08.669000', '0:01:14.662000'), ('0:00:12.446000', '0:00:16.277000'), ('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:00:16.671853', '0:00:21.106864')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:08.771904', '0:00:16.177011'), ('0:02:15.871449', '0:02:18.803650'), ('0:01:16.585782', '0:01:18.064810')]</t>
+          <t>('0:01:41.773000', '0:01:48.586000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=68.669', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=16.671853</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=8.771904', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=135.871449', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=101.773</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#']]</t>
+          <t>['G', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['A:maj', 'B:7/F#', 'E:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:53.940000')]</t>
+          <t>('0:00:44.339000', '0:00:48.135000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:23.200000', '0:01:31.140000')]</t>
+          <t>('0:01:09.860000', '0:01:14.080000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=44.339</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=69.86</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'A:maj', 'A:7']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G', 'D/3', 'D:7/2']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:18.280000', '0:02:27.940000')]</t>
+          <t>('0:00:28.450816', '0:00:40.095623')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:36.405260', '0:00:40.062403')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=138.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=36.40526']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+          <t>('0:00:22.770000', '0:00:29.490000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:18.800000', '0:00:21.340000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -914,264 +938,276 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+          <t>('0:00:00.380000', '0:00:08.900000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:06.980000', '0:00:21.920000')]</t>
+          <t>('0:00:06.980000', '0:00:21.920000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:55.400000', '0:01:03.680000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:17.737518', '0:00:22.996837')]</t>
+          <t>('0:00:06.726778', '0:00:13.147096')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=55.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:03:35.660000', '0:03:42.960000'), ('0:00:52.580000', '0:00:59.020000')]</t>
+          <t>('0:00:08.240000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:12.318208', '0:00:18.355396'), ('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=215.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=52.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=12.318208', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:7', 'F', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:57.600000', '0:01:00.720000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:06.980000', '0:00:21.920000')]</t>
+          <t>('0:00:39.386636', '0:00:52.146870')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=57.6</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=39.386636</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:dim7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:18.700000', '0:00:20.830000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:09.520000', '0:01:13.720000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=18.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=69.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:49.140000', '0:01:02.460000')]</t>
+          <t>('0:00:01.560000', '0:00:06.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=49.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
